--- a/判断条件.xlsx
+++ b/判断条件.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>原因</t>
   </si>
@@ -53,9 +54,6 @@
     <t>BCS_BrakeOverHeat</t>
   </si>
   <si>
-    <t>ESP 打开</t>
-  </si>
-  <si>
     <t>未溜坡</t>
   </si>
   <si>
@@ -129,9 +127,6 @@
     <t>1 温度过高</t>
   </si>
   <si>
-    <t>未找到</t>
-  </si>
-  <si>
     <t>功能未开启</t>
   </si>
   <si>
@@ -139,16 +134,105 @@
   </si>
   <si>
     <t>故障原因</t>
+  </si>
+  <si>
+    <t>ESP 关闭</t>
+  </si>
+  <si>
+    <t>BCS_VDCOff</t>
+  </si>
+  <si>
+    <t>抑制原因</t>
+  </si>
+  <si>
+    <t>横摆角速率过高</t>
+  </si>
+  <si>
+    <t>车道过窄</t>
+  </si>
+  <si>
+    <t>车道过宽(车道&gt;5.2m或者车道宽度&lt;2.6m持续1s)</t>
+  </si>
+  <si>
+    <t>BCS_YawRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear:
+-resolution: 0.0009765625rad/s per bit
+-offset:-2.0943
+</t>
+  </si>
+  <si>
+    <t>ADAS_LnMarkingCurvature</t>
+  </si>
+  <si>
+    <t>Linear
+- Resolution：0.00001 1/m per bit
+- offset：-0.01023 1/m
+Positive value means left bending</t>
+  </si>
+  <si>
+    <t>车道线曲率过低
+车道线曲率&lt;250m超过2s</t>
+  </si>
+  <si>
+    <t>驾驶员踩刹车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCU_EMS_BrkPedalSt </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0=Not pressed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1=Pressed</t>
+    </r>
+  </si>
+  <si>
+    <t>驾驶员关闭ACCACC</t>
+  </si>
+  <si>
+    <t>EMS_ACCButtInfo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bit0: main switch 
+    0=not press
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1=press</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,15 +243,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,18 +265,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -493,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -504,16 +610,16 @@
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -524,94 +630,192 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
